--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity progect\Jem\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303874D3-D389-4C11-A722-88EC27ABC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AF5E0-EC69-4E8F-A03C-FED32CA6382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Stetting</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Score_Key</t>
+  </si>
+  <si>
+    <t>Score :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счет : </t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,8 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -294,8 +305,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C9" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C11" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C11" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -608,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +703,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -708,6 +719,22 @@
       </c>
       <c r="C9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AF5E0-EC69-4E8F-A03C-FED32CA6382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{849A5CF0-3120-4153-A58A-1C72BB030BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Restart</t>
   </si>
   <si>
-    <t>Stetting</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -106,13 +103,64 @@
   </si>
   <si>
     <t xml:space="preserve">Счет : </t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Авторы</t>
+  </si>
+  <si>
+    <t>Authors_Key</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Last Window</t>
+  </si>
+  <si>
+    <t>Death_Key</t>
+  </si>
+  <si>
+    <t>Перейти в таймлайн, в которой ты победишь </t>
+  </si>
+  <si>
+    <t>Win_Key</t>
+  </si>
+  <si>
+    <t>Перепройти на “отлично”</t>
+  </si>
+  <si>
+    <t>Покорить новый таймлайн </t>
+  </si>
+  <si>
+    <t>DeathButton_Key</t>
+  </si>
+  <si>
+    <t>WinButton_Key</t>
+  </si>
+  <si>
+    <t>WinAAAButton_Key</t>
+  </si>
+  <si>
+    <t>Умер</t>
+  </si>
+  <si>
+    <t>Победил</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +173,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -232,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +309,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -305,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C11" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C11" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C18" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C18" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -619,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +707,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,80 +718,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849A5CF0-3120-4153-A58A-1C72BB030BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF895622-B443-4FE5-9F91-01095BAACA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,63 @@
   </si>
   <si>
     <t>Win</t>
+  </si>
+  <si>
+    <t>Quests</t>
+  </si>
+  <si>
+    <t>TheMainQuest_Key</t>
+  </si>
+  <si>
+    <t>FindTheKeycard_Key</t>
+  </si>
+  <si>
+    <t>NeutralizeGuard_Key</t>
+  </si>
+  <si>
+    <t>CollectGlitter_Key</t>
+  </si>
+  <si>
+    <t>CutDown_Key</t>
+  </si>
+  <si>
+    <t>ORLockHim_Key</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Release the host :</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Find the key card</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Collect glitter</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Neutralize a guard with a walkie-talkie</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Cut down with electricity</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;OR lock him in a room</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Освободить хозяина :</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Найти ключ-карту</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Собрать блестяшки</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Нейтрализовать охранника с рацией</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;Вырубить с помощью электричества </t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;ИЛИ запереть в комнате </t>
   </si>
 </sst>
 </file>
@@ -362,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C18" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C18" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C25" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C25" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -676,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +922,77 @@
         <v>39</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF895622-B443-4FE5-9F91-01095BAACA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EEA7C-10C9-47F6-942F-C3B01C2AB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -171,12 +171,6 @@
     <t>CollectGlitter_Key</t>
   </si>
   <si>
-    <t>CutDown_Key</t>
-  </si>
-  <si>
-    <t>ORLockHim_Key</t>
-  </si>
-  <si>
     <t>&lt;size=12&gt;Release the host :</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t>&lt;size=12&gt;Neutralize a guard with a walkie-talkie</t>
   </si>
   <si>
-    <t>&lt;size=12&gt;Cut down with electricity</t>
-  </si>
-  <si>
-    <t>&lt;size=12&gt;OR lock him in a room</t>
-  </si>
-  <si>
     <t>&lt;size=12&gt;Освободить хозяина :</t>
   </si>
   <si>
@@ -207,17 +195,95 @@
     <t>&lt;size=12&gt;Нейтрализовать охранника с рацией</t>
   </si>
   <si>
-    <t>&lt;size=12&gt;Вырубить с помощью электричества </t>
-  </si>
-  <si>
-    <t>&lt;size=12&gt;ИЛИ запереть в комнате </t>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education1_Key</t>
+  </si>
+  <si>
+    <t>Education2_Key</t>
+  </si>
+  <si>
+    <t>Education3_Key</t>
+  </si>
+  <si>
+    <t>Education4_Key</t>
+  </si>
+  <si>
+    <t>Education5_Key</t>
+  </si>
+  <si>
+    <t>Education6_Key</t>
+  </si>
+  <si>
+    <t>Education7_Key</t>
+  </si>
+  <si>
+    <t>Education8_Key</t>
+  </si>
+  <si>
+    <t>Education9_Key</t>
+  </si>
+  <si>
+    <t>Передвижение </t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Поворот </t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Открытие двери </t>
+  </si>
+  <si>
+    <t>Open the door</t>
+  </si>
+  <si>
+    <t>Телепортация </t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Ожидание </t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Подбор сокровища </t>
+  </si>
+  <si>
+    <t>Treasure selection</t>
+  </si>
+  <si>
+    <t>Переключение рубильника</t>
+  </si>
+  <si>
+    <t>Switching the switch</t>
+  </si>
+  <si>
+    <t>Перекусывание провода </t>
+  </si>
+  <si>
+    <t>Wire snacking</t>
+  </si>
+  <si>
+    <t>Разлитие воды </t>
+  </si>
+  <si>
+    <t>Water spill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +303,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2F5496"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -344,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +441,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C25" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C25" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C33" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C33" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -733,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,10 +1006,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +1017,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +1028,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,32 +1039,115 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EEA7C-10C9-47F6-942F-C3B01C2AB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0EE96D-318D-4A80-A432-8B8BF680E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -277,6 +277,51 @@
   </si>
   <si>
     <t>Water spill</t>
+  </si>
+  <si>
+    <t>Step_Key</t>
+  </si>
+  <si>
+    <t>Осталось ходов -</t>
+  </si>
+  <si>
+    <t>Moves left -</t>
+  </si>
+  <si>
+    <t>Управление - WASD</t>
+  </si>
+  <si>
+    <t>Management - WASD</t>
+  </si>
+  <si>
+    <t>Management_Key</t>
+  </si>
+  <si>
+    <t>Пропустить ход - X</t>
+  </si>
+  <si>
+    <t>Skip Move - X</t>
+  </si>
+  <si>
+    <t>SkipMove_Key</t>
+  </si>
+  <si>
+    <t>Next clone</t>
+  </si>
+  <si>
+    <t>NextClone_Key</t>
+  </si>
+  <si>
+    <t>Следующий клон</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Reload_Key</t>
+  </si>
+  <si>
+    <t>Перезапуск</t>
   </si>
 </sst>
 </file>
@@ -493,8 +538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C33" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C33" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C38" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C38" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -807,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,226 +972,281 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0EE96D-318D-4A80-A432-8B8BF680E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B39156-426A-45C3-AD7B-8ECA25AFFAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B39156-426A-45C3-AD7B-8ECA25AFFAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9026D581-23E6-435C-80CC-C92723EA5B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>Перезапуск</t>
+  </si>
+  <si>
+    <t>Further</t>
+  </si>
+  <si>
+    <t>Further_Key</t>
+  </si>
+  <si>
+    <t>Далее</t>
   </si>
 </sst>
 </file>
@@ -538,8 +547,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C38" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C38" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C39" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C39" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -852,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,6 +1259,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9026D581-23E6-435C-80CC-C92723EA5B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492957B8-FC52-44AD-8F85-29A92E062E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Далее</t>
+  </si>
+  <si>
+    <t>EducationStart_Key</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C39" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C39" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C40" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C40" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1273,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492957B8-FC52-44AD-8F85-29A92E062E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFF272A-40CA-4839-9DB4-100744549A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Win_Key</t>
   </si>
   <si>
-    <t>Перепройти на “отлично”</t>
-  </si>
-  <si>
-    <t>Покорить новый таймлайн </t>
-  </si>
-  <si>
     <t>DeathButton_Key</t>
   </si>
   <si>
@@ -225,60 +219,12 @@
     <t>Education9_Key</t>
   </si>
   <si>
-    <t>Передвижение </t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Поворот </t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Открытие двери </t>
-  </si>
-  <si>
     <t>Open the door</t>
   </si>
   <si>
-    <t>Телепортация </t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>Ожидание </t>
-  </si>
-  <si>
     <t>Wait</t>
   </si>
   <si>
-    <t>Подбор сокровища </t>
-  </si>
-  <si>
-    <t>Treasure selection</t>
-  </si>
-  <si>
-    <t>Переключение рубильника</t>
-  </si>
-  <si>
-    <t>Switching the switch</t>
-  </si>
-  <si>
-    <t>Перекусывание провода </t>
-  </si>
-  <si>
-    <t>Wire snacking</t>
-  </si>
-  <si>
-    <t>Разлитие воды </t>
-  </si>
-  <si>
-    <t>Water spill</t>
-  </si>
-  <si>
     <t>Step_Key</t>
   </si>
   <si>
@@ -334,13 +280,125 @@
   </si>
   <si>
     <t>EducationStart_Key</t>
+  </si>
+  <si>
+    <t>Music_Key</t>
+  </si>
+  <si>
+    <t>Sound_Key</t>
+  </si>
+  <si>
+    <t>Language_Key</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Язык</t>
+  </si>
+  <si>
+    <t>Звук</t>
+  </si>
+  <si>
+    <t>Памятка путешественника во времени: 
+1. Для перемещения во времени задействуй устройство на SPACE
+2. Устройство перемещает тебя во времени, но не в пространстве 
+3. Ты из прошлого повторишь свой путь, не сталкивайся с самим собой, иначе смерть 
+4. Не попадайся в лапы охранникам, в их руках закончилась ни одна попугайная жизнь 
+5. Собранные сокровища остаются с тобой, даже если ты совершаешь скачек во времени 
+Пояснение к управлению: 
+1. Чтобы передвигаться, нажимай WASD 
+2. Для поворота камеры используй Q E 
+3. Использовать предметы можно на клавиши F и G 
+4. Некоторые объекты нужно удерживать (например, рычаг у двери) 
+5. Пропустить ход, для удержания или ожидания, можно клавишей X</t>
+  </si>
+  <si>
+    <t>Time Traveler’s Guide:
+1. Press [SPACE] to jump through time.
+2. You’ll travel through time, but not space.
+3. Your variant from past will repeat all your movements. Do not try to touch him. You’ll die.
+4. Don’t let the guards catch you. They’ve ruined a lot of parrots’ life before you. 
+5. Gathered things stay with you even if you jump through time.
+Some details about controls:
+1. Press WASD to move.
+2. Press Q or E to rotate the camera. 
+3. Press F and G to interact with objects. 
+4. Some objects need to be interacted with for more than one move. 
+5. Press X to skip a move.</t>
+  </si>
+  <si>
+    <t>Lets try again</t>
+  </si>
+  <si>
+    <t>Еще раз</t>
+  </si>
+  <si>
+    <t>Walk straight</t>
+  </si>
+  <si>
+    <t>Иди вперед</t>
+  </si>
+  <si>
+    <t>Turn the camera</t>
+  </si>
+  <si>
+    <t>Поверни камеру</t>
+  </si>
+  <si>
+    <t>Открой дверь </t>
+  </si>
+  <si>
+    <t>Move in time</t>
+  </si>
+  <si>
+    <t>Прыгай во времени</t>
+  </si>
+  <si>
+    <t>Подожди</t>
+  </si>
+  <si>
+    <t>Take the coin</t>
+  </si>
+  <si>
+    <t>Возьми монету</t>
+  </si>
+  <si>
+    <t>Switch the electricity</t>
+  </si>
+  <si>
+    <t>Переключи электричество</t>
+  </si>
+  <si>
+    <t>Bite the wire</t>
+  </si>
+  <si>
+    <t>Кусай провод</t>
+  </si>
+  <si>
+    <t>Spill water</t>
+  </si>
+  <si>
+    <t>Разлей воду</t>
+  </si>
+  <si>
+    <t>To the timeline of winner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +425,13 @@
       <sz val="13"/>
       <color rgb="FF2F5496"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDBDEE1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -474,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +563,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C40" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C40" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C43" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C43" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -864,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,57 +1056,57 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1127,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>31</v>
@@ -1066,35 +1138,31 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,180 +1170,219 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="195.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Localization.xlsx
+++ b/Assets/Resources/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\PunkCakeGJ\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFF272A-40CA-4839-9DB4-100744549A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717ECD4-38B4-4CD4-936D-CCEB699EC284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -309,89 +309,96 @@
     <t>Звук</t>
   </si>
   <si>
-    <t>Памятка путешественника во времени: 
+    <t>Lets try again</t>
+  </si>
+  <si>
+    <t>Еще раз</t>
+  </si>
+  <si>
+    <t>Walk straight</t>
+  </si>
+  <si>
+    <t>Иди вперед</t>
+  </si>
+  <si>
+    <t>Turn the camera</t>
+  </si>
+  <si>
+    <t>Поверни камеру</t>
+  </si>
+  <si>
+    <t>Открой дверь </t>
+  </si>
+  <si>
+    <t>Move in time</t>
+  </si>
+  <si>
+    <t>Прыгай во времени</t>
+  </si>
+  <si>
+    <t>Подожди</t>
+  </si>
+  <si>
+    <t>Take the coin</t>
+  </si>
+  <si>
+    <t>Возьми монету</t>
+  </si>
+  <si>
+    <t>Switch the electricity</t>
+  </si>
+  <si>
+    <t>Переключи электричество</t>
+  </si>
+  <si>
+    <t>Bite the wire</t>
+  </si>
+  <si>
+    <t>Кусай провод</t>
+  </si>
+  <si>
+    <t>Spill water</t>
+  </si>
+  <si>
+    <t>Разлей воду</t>
+  </si>
+  <si>
+    <t>To the timeline of winner</t>
+  </si>
+  <si>
+    <t>EducationStart_Key1</t>
+  </si>
+  <si>
+    <t>Some details about controls:
+1. Press WASD to move.
+2. Press Q or E to rotate the camera. 
+3. Press F and G to interact with objects. 
+4. Some objects need to be interacted with for more than one move. 
+5. Press X to skip a move.</t>
+  </si>
+  <si>
+    <t>Time Traveler’s Guide:
+1. Press [SPACE] to jump through time.
+2. You’ll travel through time, but not space.
+3. Your variant from past will repeat all your movements. Do not try to touch him. You’ll die.
+4. Don’t let the guards catch you. They’ve ruined a lot of parrots’ life before you. 
+5. Gathered things stay with you even if you jump through time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Памятка путешественника во времени: 
 1. Для перемещения во времени задействуй устройство на SPACE
 2. Устройство перемещает тебя во времени, но не в пространстве 
 3. Ты из прошлого повторишь свой путь, не сталкивайся с самим собой, иначе смерть 
 4. Не попадайся в лапы охранникам, в их руках закончилась ни одна попугайная жизнь 
-5. Собранные сокровища остаются с тобой, даже если ты совершаешь скачек во времени 
-Пояснение к управлению: 
+5. Собранные сокровища остаются с тобой, даже если ты совершаешь скачек во времени </t>
+  </si>
+  <si>
+    <t>Пояснение к управлению: 
 1. Чтобы передвигаться, нажимай WASD 
 2. Для поворота камеры используй Q E 
 3. Использовать предметы можно на клавиши F и G 
 4. Некоторые объекты нужно удерживать (например, рычаг у двери) 
 5. Пропустить ход, для удержания или ожидания, можно клавишей X</t>
-  </si>
-  <si>
-    <t>Time Traveler’s Guide:
-1. Press [SPACE] to jump through time.
-2. You’ll travel through time, but not space.
-3. Your variant from past will repeat all your movements. Do not try to touch him. You’ll die.
-4. Don’t let the guards catch you. They’ve ruined a lot of parrots’ life before you. 
-5. Gathered things stay with you even if you jump through time.
-Some details about controls:
-1. Press WASD to move.
-2. Press Q or E to rotate the camera. 
-3. Press F and G to interact with objects. 
-4. Some objects need to be interacted with for more than one move. 
-5. Press X to skip a move.</t>
-  </si>
-  <si>
-    <t>Lets try again</t>
-  </si>
-  <si>
-    <t>Еще раз</t>
-  </si>
-  <si>
-    <t>Walk straight</t>
-  </si>
-  <si>
-    <t>Иди вперед</t>
-  </si>
-  <si>
-    <t>Turn the camera</t>
-  </si>
-  <si>
-    <t>Поверни камеру</t>
-  </si>
-  <si>
-    <t>Открой дверь </t>
-  </si>
-  <si>
-    <t>Move in time</t>
-  </si>
-  <si>
-    <t>Прыгай во времени</t>
-  </si>
-  <si>
-    <t>Подожди</t>
-  </si>
-  <si>
-    <t>Take the coin</t>
-  </si>
-  <si>
-    <t>Возьми монету</t>
-  </si>
-  <si>
-    <t>Switch the electricity</t>
-  </si>
-  <si>
-    <t>Переключи электричество</t>
-  </si>
-  <si>
-    <t>Bite the wire</t>
-  </si>
-  <si>
-    <t>Кусай провод</t>
-  </si>
-  <si>
-    <t>Spill water</t>
-  </si>
-  <si>
-    <t>Разлей воду</t>
-  </si>
-  <si>
-    <t>To the timeline of winner</t>
   </si>
 </sst>
 </file>
@@ -539,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -622,8 +628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C43" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C43" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C44" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C44" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>31</v>
@@ -1141,10 +1147,10 @@
         <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,99 +1241,99 @@
       <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>98</v>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>100</v>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>101</v>
+      <c r="C32" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>103</v>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>104</v>
+      <c r="C34" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>106</v>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>108</v>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>110</v>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>112</v>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,47 +1347,58 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="195.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>91</v>
       </c>
     </row>
